--- a/with_africa/with_eoa_copy.xlsx
+++ b/with_africa/with_eoa_copy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhruvpandit/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhruvpandit/Documents/GitHub/Projects/with_africa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FD25FD-C070-1249-B934-44D00124AE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460D38FA-76C2-A347-A5C8-33CAA15EA994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Public Source Summaries" sheetId="14" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="402">
   <si>
     <t>Country</t>
   </si>
@@ -1231,24 +1231,9 @@
     <t xml:space="preserve">The website of Sao Tome and Principe has tourism data that is very out of date, and the source listed on ODFA is the World Bank. The ‘Ease of Access Score' for Sao Tome and Principe is relatively low compared to other countries in the same region </t>
   </si>
   <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>introduction</t>
-  </si>
-  <si>
     <t xml:space="preserve">The ‘Ease of Access’ score was created within the scope of the Nova SBE WiTH Africa project.
 This score was determined based on several factors such as availability of datasets or reports, the recency and frequency of publication of the data, and the number of indicators tracked.
 The ‘Ease of Access’ to each country’s tourism data was evaluated on a scale from 0 to 4, with higher scores indicating a better ‘Ease of Access’. </t>
-  </si>
-  <si>
-    <t>methodology</t>
-  </si>
-  <si>
-    <t>title</t>
   </si>
   <si>
     <t>Introduction</t>
@@ -1264,12 +1249,6 @@
 This rigorous process allowed us to amass a robust compilation of resources, detailing every accessible data source. To provide clarity and a comparative framework, we established a scoring system, rating each country's Ease of Access Score to their respective tourism data. In instances where a country's official website directed users to the Open Data for Africa platform, we ensured that indicators hosted on this platform were scrutinized. Conclusively, each nation was attributed an "Ease of Access Score", which was then aggregated by region, in alignment with the UNSD's regional designations, to derive overarching statistics and insights. </t>
   </si>
   <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>legend</t>
-  </si>
-  <si>
     <t xml:space="preserve">Non-operational national statistics agency website, absence of any tourism related data; unusable data. </t>
   </si>
   <si>
@@ -1283,13 +1262,28 @@
   </si>
   <si>
     <t>The national statistics agency serves as a more than adequate source for tourism-related data. The data has been recently published (in the past three years), can be obtained in a machine-readable format, and has numerous indicators.</t>
+  </si>
+  <si>
+    <t>Legend_Description</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>InfoText_ID</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1347,6 +1341,12 @@
       <color theme="1"/>
       <name val="OpenSans"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2AA198"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1384,7 +1384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1444,6 +1444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -4530,7 +4531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368CAB8E-8202-4843-A639-EF7D4FB63A02}">
   <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="135" zoomScaleNormal="57" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="135" zoomScaleNormal="57" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -6064,43 +6065,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E92419-E6D7-5844-AA5D-A6915586EA12}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>389</v>
       </c>
-      <c r="C1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="32">
-      <c r="A2" s="22" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C3" t="s">
         <v>390</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="C2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>392</v>
-      </c>
-      <c r="B3" t="s">
-        <v>396</v>
-      </c>
-      <c r="C3" t="s">
-        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -6112,18 +6113,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B2FDA6-4E2D-3944-9439-E0549B8B86E9}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="16">
       <c r="A1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>397</v>
-      </c>
-      <c r="B1" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6131,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6139,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6147,7 +6146,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6155,7 +6154,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6163,7 +6162,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/with_africa/with_eoa_copy.xlsx
+++ b/with_africa/with_eoa_copy.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhruvpandit/Documents/GitHub/Projects/with_africa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460D38FA-76C2-A347-A5C8-33CAA15EA994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1001E32-4602-F44D-8CD8-760B2CF0874D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Public Source Summaries" sheetId="14" r:id="rId1"/>
     <sheet name="eoa_dashboard_data" sheetId="16" r:id="rId2"/>
     <sheet name="infottext" sheetId="17" r:id="rId3"/>
-    <sheet name="legend" sheetId="18" r:id="rId4"/>
+    <sheet name="infottext_new" sheetId="20" r:id="rId4"/>
+    <sheet name="legend" sheetId="18" r:id="rId5"/>
+    <sheet name="legend_new" sheetId="19" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="416">
   <si>
     <t>Country</t>
   </si>
@@ -1278,12 +1280,60 @@
   <si>
     <t>Title</t>
   </si>
+  <si>
+    <t>Value Range</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>0.1 - 1</t>
+  </si>
+  <si>
+    <t>Data from 2001 to 2006, or few indicators, low machine readability, and/or security warnings present</t>
+  </si>
+  <si>
+    <t>1.1 - 2</t>
+  </si>
+  <si>
+    <t>Data from 2007 to 2012, or a moderate number of indicators with average machine readability, and few security warnings</t>
+  </si>
+  <si>
+    <t>2.1 - 3</t>
+  </si>
+  <si>
+    <t>Data from 2013 to 2018, or a good number of indicators with good machine readability, and fewer security warnings</t>
+  </si>
+  <si>
+    <t>3.1 - 4.9</t>
+  </si>
+  <si>
+    <t>Data from 2018 and above, or a large number of indicators with excellent machine readability, and no security warnings</t>
+  </si>
+  <si>
+    <t>Data is extremely recent, comprehensive in indicators, machine-readable, and no security warnings</t>
+  </si>
+  <si>
+    <t>Data not available or before the year 2000, or no indicators, low machine readability, and security warnings present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ‘Ease of Access’ score was created within the scope of the Nova SBE WiTH Africa project.
+This score was determined based on several factors such as availability of datasets or reports, the recency and frequency of publication of the data, the number of indicators tracked, and the format of the data provided. 
+The ‘Ease of Access’ to each country’s tourism data was evaluated on a scale from 0 to 5, with higher scores indicating a better ‘Ease of Access’. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The data presented was collected specifically from late August 2023 to early October 2023. It's essential to recognize that the findings and insights derived from this data are reflective of the situation during that specific period. 
+Given the dynamic nature of the tourism industry and the myriad factors influencing the data ecosystem, the current situation might differ from the observations documented above. As such, readers are advised to interpret the results with this context in mind. While they provide valuable insights into the state of the African tourism data ecosystem during that time, they may not account for recent developments, changes, or trends that have emerged after early October 2023. 
+To ensure the most accurate and up-to-date understanding, readers are encouraged to consult more recent sources or datasets in conjunction with this report, especially when making data-driven decisions or strategies based on the findings presented herein. 
+To obtain the “Ease of Access” scores, we embarked on an exhaustive exploration of the African continent's data availability. Utilizing a comprehensive list of countries as sourced from the United Nations Statistics Division (UNSD), we identified and documented the primary statistical agencies for each nation. Where required, ministries of tourism and central banks were accessed to discern the presence of tourism-specific indicators and datasets. 
+This rigorous process allowed us to amass a robust compilation of resources, detailing every accessible data source. To provide clarity and a comparative framework, we established a scoring system, rating each country's Ease of Access Score to their respective tourism data. In instances where a country's official website directed users to the Open Data for Africa platform, we ensured that indicators hosted on this platform were scrutinized. Conclusively, each nation was attributed an "Ease of Access Score", which was then aggregated by region, in alignment with the UNSD's regional designations, to derive overarching statistics and insights. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1347,6 +1397,18 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="OpenSans"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1384,7 +1446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1445,6 +1507,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -4531,7 +4600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368CAB8E-8202-4843-A639-EF7D4FB63A02}">
   <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="135" zoomScaleNormal="57" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="135" zoomScaleNormal="57" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -6066,7 +6135,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6110,10 +6179,60 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB89510-384C-264F-B4A6-2956F3112B0D}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="409.6">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="409.6">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B2FDA6-4E2D-3944-9439-E0549B8B86E9}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
@@ -6168,4 +6287,75 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBA7FB3-27CA-5E44-B1D1-7D79CE57E82D}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/with_africa/with_eoa_copy.xlsx
+++ b/with_africa/with_eoa_copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhruvpandit/Documents/GitHub/Projects/with_africa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1001E32-4602-F44D-8CD8-760B2CF0874D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943F882C-B590-204F-B5AC-99E9FFBE6285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Public Source Summaries" sheetId="14" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="414">
   <si>
     <t>Country</t>
   </si>
@@ -1279,12 +1279,6 @@
   </si>
   <si>
     <t>Title</t>
-  </si>
-  <si>
-    <t>Value Range</t>
-  </si>
-  <si>
-    <t>Description</t>
   </si>
   <si>
     <t>0.1 - 1</t>
@@ -6182,7 +6176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB89510-384C-264F-B4A6-2956F3112B0D}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -6204,7 +6198,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C2" s="24" t="s">
         <v>389</v>
@@ -6215,7 +6209,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>390</v>
@@ -6231,7 +6225,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6293,18 +6287,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBA7FB3-27CA-5E44-B1D1-7D79CE57E82D}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="16">
       <c r="A1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B1" t="s">
-        <v>403</v>
+        <v>398</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6312,39 +6306,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6352,7 +6346,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
